--- a/LitTriage/datasetmigration.xlsx
+++ b/LitTriage/datasetmigration.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>Data Set</t>
   </si>
@@ -74,9 +74,6 @@
     <t>GO</t>
   </si>
   <si>
-    <t>QTL</t>
-  </si>
-  <si>
     <t>Tumor</t>
   </si>
   <si>
@@ -159,6 +156,18 @@
   </si>
   <si>
     <t>Alleles:Strain</t>
+  </si>
+  <si>
+    <t>don't care/either is ok</t>
+  </si>
+  <si>
+    <t>true/1/not exists</t>
+  </si>
+  <si>
+    <t>false/0/not exists</t>
+  </si>
+  <si>
+    <t>dataset info not available in MGD</t>
   </si>
 </sst>
 </file>
@@ -501,16 +510,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -550,210 +559,210 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -764,194 +773,233 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
